--- a/数据整理/stocks/A股/科创板/688677-海泰新光.xlsx
+++ b/数据整理/stocks/A股/科创板/688677-海泰新光.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="53">
   <si>
     <t>基金代码</t>
   </si>
@@ -22,67 +22,109 @@
     <t>基金名称</t>
   </si>
   <si>
+    <t>基金金额</t>
+  </si>
+  <si>
     <t>股票总仓位</t>
   </si>
   <si>
     <t>仓位占比</t>
   </si>
   <si>
+    <t>持有市值(亿元)</t>
+  </si>
+  <si>
     <t>仓位排名</t>
   </si>
   <si>
+    <t>004374</t>
+  </si>
+  <si>
+    <t>000061</t>
+  </si>
+  <si>
+    <t>004375</t>
+  </si>
+  <si>
+    <t>003567</t>
+  </si>
+  <si>
+    <t>009893</t>
+  </si>
+  <si>
     <t>004558</t>
   </si>
   <si>
+    <t>004930</t>
+  </si>
+  <si>
+    <t>004931</t>
+  </si>
+  <si>
     <t>004559</t>
   </si>
   <si>
-    <t>004930</t>
-  </si>
-  <si>
-    <t>004931</t>
-  </si>
-  <si>
-    <t>000061</t>
-  </si>
-  <si>
-    <t>009893</t>
-  </si>
-  <si>
-    <t>003567</t>
-  </si>
-  <si>
-    <t>004374</t>
-  </si>
-  <si>
-    <t>004375</t>
+    <t>华泰保兴吉年丰混合A</t>
+  </si>
+  <si>
+    <t>华夏盛世混合</t>
+  </si>
+  <si>
+    <t>华泰保兴吉年丰混合C</t>
+  </si>
+  <si>
+    <t>华夏行业景气混合</t>
+  </si>
+  <si>
+    <t>摩根士丹利华鑫优悦安和混合</t>
   </si>
   <si>
     <t>汇安丰裕灵活配置混合A</t>
   </si>
   <si>
+    <t>华润元大价值优选混合A</t>
+  </si>
+  <si>
+    <t>华润元大价值优选混合C</t>
+  </si>
+  <si>
     <t>汇安丰裕灵活配置混合C</t>
   </si>
   <si>
-    <t>华润元大价值优选混合A</t>
-  </si>
-  <si>
-    <t>华润元大价值优选混合C</t>
-  </si>
-  <si>
-    <t>华夏盛世混合</t>
-  </si>
-  <si>
-    <t>摩根士丹利华鑫优悦安和混合</t>
-  </si>
-  <si>
-    <t>华夏行业景气混合</t>
-  </si>
-  <si>
-    <t>华泰保兴吉年丰混合A</t>
-  </si>
-  <si>
-    <t>华泰保兴吉年丰混合C</t>
+    <t>11.30</t>
+  </si>
+  <si>
+    <t>8.57</t>
+  </si>
+  <si>
+    <t>4.17</t>
+  </si>
+  <si>
+    <t>0.85</t>
+  </si>
+  <si>
+    <t>0.94</t>
+  </si>
+  <si>
+    <t>1.01</t>
+  </si>
+  <si>
+    <t>0.53</t>
+  </si>
+  <si>
+    <t>0.27</t>
+  </si>
+  <si>
+    <t>92.44</t>
+  </si>
+  <si>
+    <t>90.21</t>
+  </si>
+  <si>
+    <t>89.87</t>
+  </si>
+  <si>
+    <t>91.14</t>
   </si>
   <si>
     <t>87.40</t>
@@ -91,16 +133,16 @@
     <t>79.93</t>
   </si>
   <si>
-    <t>90.21</t>
-  </si>
-  <si>
-    <t>91.14</t>
-  </si>
-  <si>
-    <t>89.87</t>
-  </si>
-  <si>
-    <t>92.44</t>
+    <t>4.57</t>
+  </si>
+  <si>
+    <t>2.66</t>
+  </si>
+  <si>
+    <t>4.71</t>
+  </si>
+  <si>
+    <t>3.96</t>
   </si>
   <si>
     <t>3.04</t>
@@ -109,16 +151,28 @@
     <t>4.30</t>
   </si>
   <si>
-    <t>2.66</t>
-  </si>
-  <si>
-    <t>3.96</t>
-  </si>
-  <si>
-    <t>4.71</t>
-  </si>
-  <si>
-    <t>4.57</t>
+    <t>0.5164</t>
+  </si>
+  <si>
+    <t>0.2280</t>
+  </si>
+  <si>
+    <t>0.1906</t>
+  </si>
+  <si>
+    <t>0.0400</t>
+  </si>
+  <si>
+    <t>0.0372</t>
+  </si>
+  <si>
+    <t>0.0307</t>
+  </si>
+  <si>
+    <t>0.0228</t>
+  </si>
+  <si>
+    <t>0.0116</t>
   </si>
 </sst>
 </file>
@@ -476,13 +530,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -498,185 +552,242 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>34</v>
+      </c>
+      <c r="F3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>33</v>
+      </c>
+      <c r="F4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H5">
         <v>8</v>
       </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6">
         <v>9</v>
       </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>37</v>
+      </c>
+      <c r="F7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E8" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>38</v>
+      </c>
+      <c r="F8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" t="s">
+        <v>51</v>
+      </c>
+      <c r="H8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E9" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>38</v>
+      </c>
+      <c r="F9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E10" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10">
-        <v>5</v>
+        <v>37</v>
+      </c>
+      <c r="F10" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/科创板/688677-海泰新光.xlsx
+++ b/数据整理/stocks/A股/科创板/688677-海泰新光.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1156,4 +1157,972 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002708</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大摩健康产业混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>14.82</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8729</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>519087</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>新华优选分红混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13.06</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.70</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7914</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>003291</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>信达澳银健康中国灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3738</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>519156</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>新华行业轮换灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.97</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3546</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>233007</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大摩卓越成长混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.34</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.82</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3215</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011598</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>信达澳银医药健康混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3060</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001040</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>新华策略精选股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3023</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011383</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富安达医药创新混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>85.56</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1152</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>233001</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>大摩基础行业混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>79.12</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1062</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002707</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫科技领先灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0816</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>233008</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>大摩消费领航混合基金</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>79.47</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0720</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011457</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>新华行业龙头主题股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0703</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>519093</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>新华钻石品质企业混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0635</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001294</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>新华战略新兴产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>87.14</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0557</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001861</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富安达健康人生灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.40</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0460</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001004</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>新华稳健回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0373</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>007861</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>金元顺安医疗健康混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>80.54</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0368</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009893</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫优悦安和混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0297</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001965</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>圆信永丰兴源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.43</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>007862</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>金元顺安医疗健康混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>80.54</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>004573</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>新华鑫泰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>83.28</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001966</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>圆信永丰兴源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.43</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>006274</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>圆信永丰医药健康混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>519157</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>新华行业轮换灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.97</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688677-海泰新光.xlsx
+++ b/数据整理/stocks/A股/科创板/688677-海泰新光.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2125,4 +2126,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>24</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.97</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>9</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.08</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688677-海泰新光.xlsx
+++ b/数据整理/stocks/A股/科创板/688677-海泰新光.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2134,7 +2135,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2145,17 +2146,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2165,14 +2186,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>24</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4.1</v>
+          <t>519087</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>新华优选分红混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11.65</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.32</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6769</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -2181,14 +2224,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>7</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.97</v>
+          <t>001965</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>圆信永丰兴源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.69</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.51</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5302</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -2197,13 +2262,895 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>001040</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>新华策略精选股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.12</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.38</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4434</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002708</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大摩健康产业混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3548</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519156</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>新华行业轮换灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3488</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>162207</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>泰达宏利效率优选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>69.55</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2439</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003291</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>信达澳银健康中国灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2408</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011598</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>信达澳银医药健康混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1943</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001861</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富安达健康人生灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>85.46</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1899</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011383</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富安达医药创新混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.10</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1033</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005108</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>圆信永丰双利优选定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.41</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0943</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>007861</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>金元顺安医疗健康混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0857</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>013067</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富安达中小盘六个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>49.38</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0795</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001294</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>新华战略新兴产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0766</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011457</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>新华行业龙头主题股票</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0637</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>519093</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>新华钻石品质企业混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.12</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0565</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>519097</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>新华中小市值优选混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>65.08</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0442</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001004</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>新华稳健回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.00</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0319</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001681</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>新华积极价值灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0274</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001966</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>圆信永丰兴源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>89.51</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>006274</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>圆信永丰医药健康混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>89.49</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>007862</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>金元顺安医疗健康混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>519157</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>新华行业轮换灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>23</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.92</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>24</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.97</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>9</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>1.08</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688677-海泰新光.xlsx
+++ b/数据整理/stocks/A股/科创板/688677-海泰新光.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3065,7 +3066,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3076,17 +3077,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3096,14 +3117,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>23</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.92</v>
+          <t>519087</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>新华优选分红混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.03</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.56</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7152</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -3112,14 +3155,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>24</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4.1</v>
+          <t>001040</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>新华策略精选股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4975</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -3128,14 +3193,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>7</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.97</v>
+          <t>519156</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>新华行业轮换灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3909</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -3144,13 +3231,1025 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>003291</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>信达澳银健康中国灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.32</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2015</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011598</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>信达澳银医药健康混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1648</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>014185</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商专精特新股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.37</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>30.94</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1565</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001294</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>新华战略新兴产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.41</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.29</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0887</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005108</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>圆信永丰双利优选定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0807</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011383</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富安达医药创新混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>83.50</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0774</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>013067</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富安达中小盘六个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>74.39</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0728</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006981</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中金新医药股票A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0720</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011457</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>新华行业龙头主题股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0672</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>014186</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>招商专精特新股票C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>30.94</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0647</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>519097</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>新华中小市值优选混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>62.70</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0376</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001965</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>圆信永丰兴源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0350</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001861</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富安达健康人生灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>82.18</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0313</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>007861</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>金元顺安医疗健康混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>86.80</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>007005</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中金新医药股票C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001966</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>圆信永丰兴源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008884</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>博远博锐混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>86.59</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>006274</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>圆信永丰医药健康混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>519157</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>新华行业轮换灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>007862</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>金元顺安医疗健康混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>86.80</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001659</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>富安达新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>90.52</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>005537</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中航新起航灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>87.09</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>008885</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>博远博锐混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>86.59</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>005538</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中航新起航灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>87.09</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>27</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.82</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>23</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.92</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>24</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.97</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>9</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>1.08</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688677-海泰新光.xlsx
+++ b/数据整理/stocks/A股/科创板/688677-海泰新光.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4148,7 +4149,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4159,17 +4160,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4179,14 +4200,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>27</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.82</v>
+          <t>519087</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>新华优选分红混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.73</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.49</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.62</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9249</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -4195,14 +4238,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>23</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.92</v>
+          <t>002708</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大摩健康产业混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>20.08</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7389</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -4211,14 +4276,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>24</v>
-      </c>
-      <c r="D4" t="n">
-        <v>4.1</v>
+          <t>001040</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>新华策略精选股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.56</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.38</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6335</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -4227,14 +4314,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>7</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.97</v>
+          <t>519156</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>新华行业轮换灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.70</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.37</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4955</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -4243,13 +4352,1265 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>008293</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>农银汇理创新医疗混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.81</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3012</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>014185</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商专精特新股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.35</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2819</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008371</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华安汇智精选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.84</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2475</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008359</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华安医疗创新混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.78</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2248</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>014186</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>招商专精特新股票C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>86.35</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1783</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>240020</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华宝医药生物优选混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.82</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1721</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011598</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>信达澳银医药健康混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1374</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006981</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中金新医药股票A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.04</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1110</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001294</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>新华战略新兴产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.98</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0997</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011383</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>富安达医药创新混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0914</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011457</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>新华行业龙头主题股票</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>8.24</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0849</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>013067</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富安达中小盘六个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>88.54</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0810</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>014030</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>大摩健康产业混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0725</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>013483</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华安医疗创新混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0658</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>519097</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>新华中小市值优选混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0637</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>004044</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>金鹰转型动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>85.88</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0387</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001861</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>富安达健康人生灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0375</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>006881</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华宝大健康混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.78</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>007005</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中金新医药股票C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.04</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>007861</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>金元顺安医疗健康混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>88.90</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011788</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>工银聚益混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>39.74</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>008884</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>博远博锐混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>81.07</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>002303</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>金鹰智慧生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.12</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>7.75</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>519157</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>新华行业轮换灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.70</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>8.37</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>007862</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>金元顺安医疗健康混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>88.90</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>005537</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>中航新起航灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>87.96</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>8.66</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>008885</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>博远博锐混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>81.07</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>005538</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>中航新起航灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>87.96</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>8.66</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>011789</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>工银聚益混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>39.74</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>014470</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>富安达健康人生灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>34</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.19</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>27</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.82</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>23</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.92</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>24</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>7</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.97</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>9</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>1.08</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688677-海泰新光.xlsx
+++ b/数据整理/stocks/A股/科创板/688677-海泰新光.xlsx
@@ -6,13 +6,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,388 +456,129 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004374</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华泰保兴吉年丰混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>11.30</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>92.44</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.57</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.5164</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>34</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.19</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>27</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.82</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>23</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.92</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>24</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>7</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.97</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>000061</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>华夏盛世混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>8.57</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>90.21</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.66</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.2280</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>004375</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华泰保兴吉年丰混合C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>4.17</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>92.44</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.57</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1906</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>003567</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>华夏行业景气混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.85</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>89.87</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.71</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0400</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>009893</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>摩根士丹利华鑫优悦安和混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.94</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>91.14</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.96</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0372</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
         <v>9</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>004558</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>汇安丰裕灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>87.40</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.04</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0307</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>004930</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>华润元大价值优选混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.53</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>79.93</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.30</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0228</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>004931</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>华润元大价值优选混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.27</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>79.93</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>4.30</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0116</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>004559</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>汇安丰裕灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>87.40</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.04</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>7</v>
+      <c r="D7" t="n">
+        <v>1.08</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -847,7 +588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -868,7 +609,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -898,36 +639,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>002708</t>
+          <t>519087</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>大摩健康产业混合</t>
+          <t>新华优选分红混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>9.90</t>
+          <t>10.73</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.34</t>
+          <t>89.49</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>8.62</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.5445</t>
+          <t>0.9249</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -936,36 +677,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010314</t>
+          <t>002708</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>摩根士丹利华鑫内需增长混合</t>
+          <t>大摩健康产业混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>8.43</t>
+          <t>20.08</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>70.48</t>
+          <t>92.57</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.63</t>
+          <t>3.68</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.3903</t>
+          <t>0.7389</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -974,36 +715,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>233007</t>
+          <t>001040</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>大摩卓越成长混合</t>
+          <t>新华策略精选股票</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>8.29</t>
+          <t>7.56</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>91.28</t>
+          <t>94.32</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.40</t>
+          <t>8.38</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.3648</t>
+          <t>0.6335</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -1012,36 +753,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>003291</t>
+          <t>519156</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>信达澳银健康中国灵活配置混合</t>
+          <t>新华行业轮换灵活配置混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>5.51</t>
+          <t>5.92</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.30</t>
+          <t>94.70</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.96</t>
+          <t>8.37</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.2733</t>
+          <t>0.4955</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -1050,36 +791,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>011598</t>
+          <t>008293</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>信达澳银医药健康混合</t>
+          <t>农银汇理创新医疗混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>5.39</t>
+          <t>9.81</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>94.24</t>
+          <t>92.44</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>3.07</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1940</t>
+          <t>0.3012</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -1088,36 +829,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>233001</t>
+          <t>014185</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>大摩基础行业混合</t>
+          <t>招商专精特新股票A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2.66</t>
+          <t>4.98</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>79.57</t>
+          <t>86.35</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.40</t>
+          <t>5.66</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.1170</t>
+          <t>0.2819</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -1126,36 +867,1058 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>233008</t>
+          <t>008371</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>大摩消费领航混合基金</t>
+          <t>华安汇智精选两年持有期混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.41</t>
+          <t>8.84</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>79.23</t>
+          <t>93.94</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>6.01</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0847</t>
+          <t>0.2475</t>
         </is>
       </c>
       <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008359</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华安医疗创新混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.78</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2248</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>014186</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>招商专精特新股票C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>86.35</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1783</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>240020</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华宝医药生物优选混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.82</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1721</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011598</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>信达澳银医药健康混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1374</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006981</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中金新医药股票A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.04</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1110</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001294</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>新华战略新兴产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.98</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0997</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011383</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>富安达医药创新混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0914</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011457</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>新华行业龙头主题股票</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>8.24</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0849</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>013067</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富安达中小盘六个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>88.54</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0810</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>014030</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>大摩健康产业混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0725</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>013483</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华安医疗创新混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0658</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>519097</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>新华中小市值优选混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0637</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>004044</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>金鹰转型动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>85.88</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0387</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001861</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>富安达健康人生灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0375</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>006881</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华宝大健康混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.78</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>007005</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中金新医药股票C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.04</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>007861</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>金元顺安医疗健康混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>88.90</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011788</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>工银聚益混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>39.74</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>008884</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>博远博锐混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>81.07</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>002303</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>金鹰智慧生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.12</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>7.75</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>519157</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>新华行业轮换灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.70</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>8.37</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>007862</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>金元顺安医疗健康混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>88.90</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>005537</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>中航新起航灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>87.96</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>8.66</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>008885</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>博远博锐混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>81.07</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>005538</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>中航新起航灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>87.96</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>8.66</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>011789</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>工银聚益混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>39.74</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>014470</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>富安达健康人生灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1169,7 +1932,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1190,7 +1953,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1220,36 +1983,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>002708</t>
+          <t>519087</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>大摩健康产业混合</t>
+          <t>新华优选分红混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>14.82</t>
+          <t>9.03</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.82</t>
+          <t>88.56</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.89</t>
+          <t>7.92</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.8729</t>
+          <t>0.7152</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -1258,36 +2021,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>519087</t>
+          <t>001040</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>新华优选分红混合</t>
+          <t>新华策略精选股票</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>13.06</t>
+          <t>6.15</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>88.70</t>
+          <t>93.72</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>6.06</t>
+          <t>8.09</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.7914</t>
+          <t>0.4975</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -1296,36 +2059,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>003291</t>
+          <t>519156</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>信达澳银健康中国灵活配置混合</t>
+          <t>新华行业轮换灵活配置混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>5.75</t>
+          <t>4.98</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.51</t>
+          <t>93.77</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>6.50</t>
+          <t>7.85</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.3738</t>
+          <t>0.3909</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -1334,36 +2097,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>519156</t>
+          <t>003291</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>新华行业轮换灵活配置混合A</t>
+          <t>信达澳银健康中国灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>5.97</t>
+          <t>4.03</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.97</t>
+          <t>91.32</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.94</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.3546</t>
+          <t>0.2015</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -1372,36 +2135,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>233007</t>
+          <t>011598</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>大摩卓越成长混合</t>
+          <t>信达澳银医药健康混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>7.34</t>
+          <t>3.47</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>90.82</t>
+          <t>91.98</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.38</t>
+          <t>4.75</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.3215</t>
+          <t>0.1648</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -1410,36 +2173,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>011598</t>
+          <t>014185</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>信达澳银医药健康混合</t>
+          <t>招商专精特新股票A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>4.56</t>
+          <t>8.37</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>94.41</t>
+          <t>30.94</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>6.71</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.3060</t>
+          <t>0.1565</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -1448,36 +2211,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>001040</t>
+          <t>001294</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>新华策略精选股票</t>
+          <t>新华战略新兴产业灵活配置混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>6.01</t>
+          <t>1.07</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>94.32</t>
+          <t>93.41</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>5.03</t>
+          <t>8.29</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.3023</t>
+          <t>0.0887</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -1486,36 +2249,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>011383</t>
+          <t>005108</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>富安达医药创新混合</t>
+          <t>圆信永丰双利优选定期开放灵活配置混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2.39</t>
+          <t>1.89</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>85.56</t>
+          <t>94.60</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4.82</t>
+          <t>4.27</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.1152</t>
+          <t>0.0807</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -1524,36 +2287,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>233001</t>
+          <t>011383</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>大摩基础行业混合</t>
+          <t>富安达医药创新混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2.43</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>79.12</t>
+          <t>83.50</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>4.37</t>
+          <t>4.61</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.1062</t>
+          <t>0.0774</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -1562,36 +2325,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>002707</t>
+          <t>013067</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>摩根士丹利华鑫科技领先灵活配置混合</t>
+          <t>富安达中小盘六个月持有期混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2.52</t>
+          <t>2.45</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>91.97</t>
+          <t>74.39</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>3.24</t>
+          <t>2.97</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0816</t>
+          <t>0.0728</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12">
@@ -1600,27 +2363,27 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>233008</t>
+          <t>006981</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>大摩消费领航混合基金</t>
+          <t>中金新医药股票A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1.24</t>
+          <t>1.86</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>79.47</t>
+          <t>91.77</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>5.81</t>
+          <t>3.87</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1629,7 +2392,7 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13">
@@ -1648,26 +2411,26 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1.19</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>94.67</t>
+          <t>93.55</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>5.91</t>
+          <t>7.91</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0703</t>
+          <t>0.0672</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -1676,36 +2439,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>519093</t>
+          <t>014186</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>新华钻石品质企业混合</t>
+          <t>招商专精特新股票C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1.77</t>
+          <t>3.46</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>94.30</t>
+          <t>30.94</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>3.59</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0635</t>
+          <t>0.0647</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15">
@@ -1714,36 +2477,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>001294</t>
+          <t>519097</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>新华战略新兴产业灵活配置混合</t>
+          <t>新华中小市值优选混合</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1.54</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>87.14</t>
+          <t>62.70</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>3.62</t>
+          <t>5.01</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0557</t>
+          <t>0.0376</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16">
@@ -1752,36 +2515,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>001861</t>
+          <t>001965</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>富安达健康人生灵活配置混合</t>
+          <t>圆信永丰兴源灵活配置混合A</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.81</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>89.40</t>
+          <t>93.43</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>5.68</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.0460</t>
+          <t>0.0350</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -1790,36 +2553,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>001004</t>
+          <t>001861</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>新华稳健回报灵活配置混合</t>
+          <t>富安达健康人生灵活配置混合</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1.07</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>94.46</t>
+          <t>82.18</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>3.49</t>
+          <t>5.13</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.0373</t>
+          <t>0.0313</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
@@ -1838,22 +2601,22 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>80.54</t>
+          <t>86.80</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>3.54</t>
+          <t>3.31</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.0368</t>
+          <t>0.0172</t>
         </is>
       </c>
       <c r="H18" t="n">
@@ -1866,36 +2629,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>009893</t>
+          <t>007005</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>摩根士丹利华鑫优悦安和混合</t>
+          <t>中金新医药股票C</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>91.22</t>
+          <t>91.77</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>5.31</t>
+          <t>3.87</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.0297</t>
+          <t>0.0132</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20">
@@ -1904,36 +2667,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>001965</t>
+          <t>001966</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>圆信永丰兴源灵活配置混合A</t>
+          <t>圆信永丰兴源灵活配置混合C</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.79</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>91.43</t>
+          <t>93.43</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2.78</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.0220</t>
+          <t>0.0115</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21">
@@ -1942,36 +2705,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>007862</t>
+          <t>008884</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>金元顺安医疗健康混合型证券投资基金C</t>
+          <t>博远博锐混合A</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.49</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>80.54</t>
+          <t>86.59</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>3.54</t>
+          <t>4.62</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.0173</t>
+          <t>0.0088</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22">
@@ -1980,36 +2743,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>004573</t>
+          <t>006274</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>新华鑫泰灵活配置混合</t>
+          <t>圆信永丰医药健康混合</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>83.28</t>
+          <t>93.66</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>6.44</t>
+          <t>4.63</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.0097</t>
+          <t>0.0083</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23">
@@ -2018,36 +2781,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>001966</t>
+          <t>519157</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>圆信永丰兴源灵活配置混合C</t>
+          <t>新华行业轮换灵活配置混合C</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.22</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>91.43</t>
+          <t>93.77</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2.78</t>
+          <t>7.85</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.0061</t>
+          <t>0.0031</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -2056,36 +2819,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>006274</t>
+          <t>007862</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>圆信永丰医药健康混合</t>
+          <t>金元顺安医疗健康混合型证券投资基金C</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>92.92</t>
+          <t>86.80</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2.99</t>
+          <t>3.31</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0.0060</t>
+          <t>0.0030</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25">
@@ -2094,36 +2857,150 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>519157</t>
+          <t>001659</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>新华行业轮换灵活配置混合C</t>
+          <t>富安达新动力灵活配置混合</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>94.97</t>
+          <t>90.52</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>5.94</t>
+          <t>3.91</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0.0036</t>
+          <t>0.0027</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>3</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>005537</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中航新起航灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>87.09</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>008885</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>博远博锐混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>86.59</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>005538</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中航新起航灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>87.09</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -3067,7 +3944,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3088,7 +3965,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -3118,36 +3995,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>519087</t>
+          <t>002708</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>新华优选分红混合</t>
+          <t>大摩健康产业混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>9.03</t>
+          <t>14.82</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>88.56</t>
+          <t>93.82</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.92</t>
+          <t>5.89</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.7152</t>
+          <t>0.8729</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -3156,36 +4033,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001040</t>
+          <t>519087</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>新华策略精选股票</t>
+          <t>新华优选分红混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>6.15</t>
+          <t>13.06</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.72</t>
+          <t>88.70</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>8.09</t>
+          <t>6.06</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.4975</t>
+          <t>0.7914</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -3194,36 +4071,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>519156</t>
+          <t>003291</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>新华行业轮换灵活配置混合A</t>
+          <t>信达澳银健康中国灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4.98</t>
+          <t>5.75</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.77</t>
+          <t>94.51</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>7.85</t>
+          <t>6.50</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.3909</t>
+          <t>0.3738</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -3232,36 +4109,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>003291</t>
+          <t>519156</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>信达澳银健康中国灵活配置混合</t>
+          <t>新华行业轮换灵活配置混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4.03</t>
+          <t>5.97</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>91.32</t>
+          <t>94.97</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>5.94</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.2015</t>
+          <t>0.3546</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -3270,36 +4147,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>011598</t>
+          <t>233007</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>信达澳银医药健康混合</t>
+          <t>大摩卓越成长混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3.47</t>
+          <t>7.34</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>91.98</t>
+          <t>90.82</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.75</t>
+          <t>4.38</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1648</t>
+          <t>0.3215</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -3308,36 +4185,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>014185</t>
+          <t>011598</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>招商专精特新股票A</t>
+          <t>信达澳银医药健康混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>8.37</t>
+          <t>4.56</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>30.94</t>
+          <t>94.41</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>6.71</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.1565</t>
+          <t>0.3060</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -3346,36 +4223,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>001294</t>
+          <t>001040</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>新华战略新兴产业灵活配置混合</t>
+          <t>新华策略精选股票</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.07</t>
+          <t>6.01</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>93.41</t>
+          <t>94.32</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>8.29</t>
+          <t>5.03</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0887</t>
+          <t>0.3023</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -3384,36 +4261,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>005108</t>
+          <t>011383</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>圆信永丰双利优选定期开放灵活配置混合</t>
+          <t>富安达医药创新混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1.89</t>
+          <t>2.39</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>94.60</t>
+          <t>85.56</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4.27</t>
+          <t>4.82</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0807</t>
+          <t>0.1152</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -3422,36 +4299,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>011383</t>
+          <t>233001</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>富安达医药创新混合</t>
+          <t>大摩基础行业混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>2.43</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>83.50</t>
+          <t>79.12</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>4.61</t>
+          <t>4.37</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0774</t>
+          <t>0.1062</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -3460,36 +4337,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>013067</t>
+          <t>002707</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>富安达中小盘六个月持有期混合</t>
+          <t>摩根士丹利华鑫科技领先灵活配置混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2.45</t>
+          <t>2.52</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>74.39</t>
+          <t>91.97</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2.97</t>
+          <t>3.24</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0728</t>
+          <t>0.0816</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
@@ -3498,27 +4375,27 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>006981</t>
+          <t>233008</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>中金新医药股票A</t>
+          <t>大摩消费领航混合基金</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1.86</t>
+          <t>1.24</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>91.77</t>
+          <t>79.47</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>3.87</t>
+          <t>5.81</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -3527,7 +4404,7 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13">
@@ -3546,26 +4423,26 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>1.19</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>93.55</t>
+          <t>94.67</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>7.91</t>
+          <t>5.91</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0672</t>
+          <t>0.0703</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14">
@@ -3574,36 +4451,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>014186</t>
+          <t>519093</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>招商专精特新股票C</t>
+          <t>新华钻石品质企业混合</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>3.46</t>
+          <t>1.77</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>30.94</t>
+          <t>94.30</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>3.59</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0647</t>
+          <t>0.0635</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
@@ -3612,36 +4489,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>519097</t>
+          <t>001294</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>新华中小市值优选混合</t>
+          <t>新华战略新兴产业灵活配置混合</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>1.54</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>62.70</t>
+          <t>87.14</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>5.01</t>
+          <t>3.62</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0376</t>
+          <t>0.0557</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -3650,36 +4527,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>001965</t>
+          <t>001861</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>圆信永丰兴源灵活配置混合A</t>
+          <t>富安达健康人生灵活配置混合</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.76</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>93.43</t>
+          <t>89.40</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>5.68</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.0350</t>
+          <t>0.0460</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17">
@@ -3688,36 +4565,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>001861</t>
+          <t>001004</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>富安达健康人生灵活配置混合</t>
+          <t>新华稳健回报灵活配置混合</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.61</t>
+          <t>1.07</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>82.18</t>
+          <t>94.46</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>5.13</t>
+          <t>3.49</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.0313</t>
+          <t>0.0373</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18">
@@ -3736,22 +4613,22 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.52</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>86.80</t>
+          <t>80.54</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>3.31</t>
+          <t>3.54</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.0172</t>
+          <t>0.0368</t>
         </is>
       </c>
       <c r="H18" t="n">
@@ -3764,36 +4641,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>007005</t>
+          <t>009893</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>中金新医药股票C</t>
+          <t>摩根士丹利华鑫优悦安和混合</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.34</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>91.77</t>
+          <t>91.22</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>3.87</t>
+          <t>5.31</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.0132</t>
+          <t>0.0297</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20">
@@ -3802,36 +4679,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>001966</t>
+          <t>001965</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>圆信永丰兴源灵活配置混合C</t>
+          <t>圆信永丰兴源灵活配置混合A</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>93.43</t>
+          <t>91.43</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>2.78</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.0115</t>
+          <t>0.0220</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21">
@@ -3840,36 +4717,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>008884</t>
+          <t>007862</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>博远博锐混合A</t>
+          <t>金元顺安医疗健康混合型证券投资基金C</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>86.59</t>
+          <t>80.54</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>4.62</t>
+          <t>3.54</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.0088</t>
+          <t>0.0173</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22">
@@ -3878,36 +4755,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>006274</t>
+          <t>004573</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>圆信永丰医药健康混合</t>
+          <t>新华鑫泰灵活配置混合</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>93.66</t>
+          <t>83.28</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>4.63</t>
+          <t>6.44</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.0083</t>
+          <t>0.0097</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23">
@@ -3916,36 +4793,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>519157</t>
+          <t>001966</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>新华行业轮换灵活配置混合C</t>
+          <t>圆信永丰兴源灵活配置混合C</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>93.77</t>
+          <t>91.43</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>7.85</t>
+          <t>2.78</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.0031</t>
+          <t>0.0061</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24">
@@ -3954,36 +4831,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>007862</t>
+          <t>006274</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>金元顺安医疗健康混合型证券投资基金C</t>
+          <t>圆信永丰医药健康混合</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>86.80</t>
+          <t>92.92</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>3.31</t>
+          <t>2.99</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0.0030</t>
+          <t>0.0060</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25">
@@ -3992,150 +4869,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>001659</t>
+          <t>519157</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>富安达新动力灵活配置混合</t>
+          <t>新华行业轮换灵活配置混合C</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>90.52</t>
+          <t>94.97</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>3.91</t>
+          <t>5.94</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0.0027</t>
+          <t>0.0036</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>005537</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>中航新起航灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>87.09</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>4.85</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.0015</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>008885</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>博远博锐混合C</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>86.59</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>4.62</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.0009</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>005538</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>中航新起航灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>87.09</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>4.85</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.0005</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -4149,7 +4912,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4170,7 +4933,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -4200,36 +4963,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>519087</t>
+          <t>002708</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>新华优选分红混合</t>
+          <t>大摩健康产业混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>10.73</t>
+          <t>9.90</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>89.49</t>
+          <t>91.34</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>8.62</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.9249</t>
+          <t>0.5445</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -4238,36 +5001,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>002708</t>
+          <t>010314</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>大摩健康产业混合</t>
+          <t>摩根士丹利华鑫内需增长混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>20.08</t>
+          <t>8.43</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.57</t>
+          <t>70.48</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.68</t>
+          <t>4.63</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.7389</t>
+          <t>0.3903</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -4276,36 +5039,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001040</t>
+          <t>233007</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>新华策略精选股票</t>
+          <t>大摩卓越成长混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>7.56</t>
+          <t>8.29</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.32</t>
+          <t>91.28</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>8.38</t>
+          <t>4.40</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.6335</t>
+          <t>0.3648</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -4314,36 +5077,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>519156</t>
+          <t>003291</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>新华行业轮换灵活配置混合A</t>
+          <t>信达澳银健康中国灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>5.92</t>
+          <t>5.51</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.70</t>
+          <t>93.30</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>8.37</t>
+          <t>4.96</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.4955</t>
+          <t>0.2733</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -4352,36 +5115,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>008293</t>
+          <t>011598</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>农银汇理创新医疗混合</t>
+          <t>信达澳银医药健康混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>9.81</t>
+          <t>5.39</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>92.44</t>
+          <t>94.24</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.07</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.3012</t>
+          <t>0.1940</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -4390,36 +5153,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>014185</t>
+          <t>233001</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>招商专精特新股票A</t>
+          <t>大摩基础行业混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>4.98</t>
+          <t>2.66</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>86.35</t>
+          <t>79.57</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>5.66</t>
+          <t>4.40</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.2819</t>
+          <t>0.1170</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -4428,1058 +5191,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>008371</t>
+          <t>233008</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>华安汇智精选两年持有期混合</t>
+          <t>大摩消费领航混合基金</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>8.84</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>93.94</t>
+          <t>79.23</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>6.01</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.2475</t>
+          <t>0.0847</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
         <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>008359</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>华安医疗创新混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>8.78</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>92.79</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2.56</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.2248</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>014186</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>招商专精特新股票C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>3.15</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>86.35</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>5.66</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.1783</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>240020</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>华宝医药生物优选混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>5.68</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>90.82</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>3.03</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.1721</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>011598</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>信达澳银医药健康混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>4.03</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>94.34</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>3.41</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.1374</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>006981</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>中金新医药股票A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>1.79</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>90.04</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>6.20</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.1110</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>001294</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>新华战略新兴产业灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>1.11</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>94.00</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>8.98</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0997</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>011383</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>富安达医药创新混合</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>1.68</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>91.19</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>5.44</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0914</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>011457</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>新华行业龙头主题股票</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>1.03</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>94.52</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>8.24</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0849</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>013067</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>富安达中小盘六个月持有期混合</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>2.47</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>88.54</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>3.28</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0810</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>014030</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>大摩健康产业混合C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>1.97</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>92.57</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>3.68</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0725</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>013483</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>华安医疗创新混合C</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>2.57</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>92.79</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>2.56</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0658</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>519097</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>新华中小市值优选混合</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0.78</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>90.81</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>8.17</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0637</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>004044</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>金鹰转型动力灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0.67</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>85.88</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>5.78</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0387</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>001861</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>富安达健康人生灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0.61</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>92.26</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>6.14</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0375</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>006881</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>华宝大健康混合</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>0.90</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>90.78</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>3.03</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0273</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>007005</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>中金新医药股票C</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>0.33</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>90.04</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>6.20</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0205</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>007861</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>金元顺安医疗健康混合型证券投资基金A</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>0.44</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>88.90</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>4.23</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0186</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>011788</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>工银聚益混合A</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>1.42</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>39.74</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>1.20</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.0170</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>008884</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>博远博锐混合A</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>0.18</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>81.07</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>5.16</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.0093</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>002303</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>金鹰智慧生活灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>91.12</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>7.75</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.0062</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>519157</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>新华行业轮换灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>94.70</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>8.37</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.0042</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>007862</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>金元顺安医疗健康混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>88.90</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>4.23</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.0038</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>005537</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>中航新起航灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>87.96</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>8.66</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.0026</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>008885</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>博远博锐混合C</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>81.07</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>5.16</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.0010</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>005538</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>中航新起航灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>87.96</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>8.66</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0.0009</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>011789</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>工银聚益混合C</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>39.74</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>1.20</t>
-        </is>
-      </c>
-      <c r="G34" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>014470</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>富安达健康人生灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>92.26</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>6.14</t>
-        </is>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -5493,128 +5234,387 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>34</v>
-      </c>
-      <c r="D2" t="n">
-        <v>5.19</v>
+          <t>004374</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华泰保兴吉年丰混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11.30</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5164</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>27</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.82</v>
+          <t>000061</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏盛世混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.57</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2280</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>23</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3.92</v>
+          <t>004375</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华泰保兴吉年丰混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1906</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>24</v>
-      </c>
-      <c r="D5" t="n">
-        <v>4.1</v>
+          <t>003567</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏行业景气混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.87</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0400</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
+          <t>009893</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫优悦安和混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0372</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004558</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇安丰裕灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.40</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0307</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>7</v>
       </c>
-      <c r="D6" t="n">
-        <v>1.97</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004930</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华润元大价值优选混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>79.93</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>9</v>
       </c>
-      <c r="D7" t="n">
-        <v>1.08</v>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004931</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华润元大价值优选混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>79.93</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004559</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇安丰裕灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.40</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688677-海泰新光.xlsx
+++ b/数据整理/stocks/A股/科创板/688677-海泰新光.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>34</v>
+        <v>97</v>
       </c>
       <c r="D2" t="n">
-        <v>5.19</v>
+        <v>17.52</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D3" t="n">
-        <v>2.82</v>
+        <v>5.19</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D4" t="n">
-        <v>3.92</v>
+        <v>2.82</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D5" t="n">
-        <v>4.1</v>
+        <v>3.92</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D6" t="n">
-        <v>1.97</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>7</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.97</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>9</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>1.08</v>
       </c>
     </row>
@@ -583,6 +600,3742 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H98"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009714</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安聚优精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>66.05</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.02</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.2061</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001417</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富医疗服务灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>32.06</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.81</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0836</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519087</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>新华优选分红混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.82</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.55</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.87</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0679</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000960</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商医药健康产业股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>27.32</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.0518</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>590002</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中邮核心成长混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>37.60</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>73.26</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8046</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012234</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华安聚弘精选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>20.31</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.05</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6824</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001040</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>新华策略精选股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.85</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6678</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>519156</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>新华行业轮换灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>9.68</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5518</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000220</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国医疗保健行业混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>12.29</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>86.01</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4744</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>003231</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>创金合信医疗保健行业股票C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4664</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>501079</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>大成科创主题混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>10.00</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>85.01</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4330</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>590001</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中邮核心优选混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>12.91</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>81.83</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4015</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011373</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>招商前沿医疗保健股票A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>9.10</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.32</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4013</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012186</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>招商品质成长混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>12.27</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.08</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3877</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011335</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>银河医药健康混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3677</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008293</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>农银汇理创新医疗混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>8.39</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3658</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>160926</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>大成创业板两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>7.68</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>64.14</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3233</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>012473</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>大成成长回报六个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>80.86</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3179</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>008371</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华安汇智精选混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.18</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3084</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>014185</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>招商专精特新股票A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>81.87</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>8.42</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3048</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>003230</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>创金合信医疗保健行业股票A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2727</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>008359</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华安医疗创新混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.46</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2535</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>040016</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华安行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>79.22</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2356</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>519171</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>浦银安盛医疗健康灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>88.05</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2277</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>014186</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>招商专精特新股票C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>81.87</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>8.42</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2214</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009360</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>招商创新增长混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2046</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>240020</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华宝医药生物优选混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.68</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2010</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>012187</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>招商品质成长混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>91.08</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1659</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009162</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>富国医药成长30股票</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>87.16</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1628</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>040020</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华安升级主题混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>85.97</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1606</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010371</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>大成成长进取混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>80.75</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1545</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>310388</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>申万菱信消费增长混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>91.17</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1403</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>014271</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>大成北交所两年定开混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>65.31</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1335</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>217013</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>招商中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>80.73</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1285</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>009798</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>大成创业板两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>64.14</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1141</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>006981</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>中金新医药股票A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>92.00</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>8.67</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1136</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>008290</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华安现代生活混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>90.97</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1045</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>011383</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>富安达医药创新混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>83.09</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0975</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>001294</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>新华战略新兴产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>9.53</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0943</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>501098</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>建信科技创新 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>77.90</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0921</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>011457</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>新华行业龙头主题股票</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>9.44</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0916</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>013067</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>富安达中小盘六个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>83.17</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0848</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>009898</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>民生加银医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0828</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>006430</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>凯石澜龙头经济一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>68.31</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0781</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>519673</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>银河康乐股票A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0755</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>012235</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>华安聚弘精选混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>89.05</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0726</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>013349</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>创金合信大健康混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>90.70</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0702</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>012086</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>博时健康生活混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0661</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>014841</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>东方阿尔法医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0653</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>010372</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>大成成长进取混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>80.75</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0651</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>013483</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>华安医疗创新混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>91.46</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0582</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>160421</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>华安智增精选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>85.93</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0456</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>011374</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>招商前沿医疗保健股票C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>92.32</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0454</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>519097</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>新华中小市值优选混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>67.35</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0432</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>013348</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>创金合信大健康混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>90.70</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0411</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>001861</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>富安达健康人生灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>86.44</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0404</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>013183</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>浦银安盛医疗健康灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>88.05</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0397</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>010130</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>海富通惠增多策略一年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>78.02</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0321</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>014272</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>大成北交所两年定开混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>65.31</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0317</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>009361</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>招商创新增长混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0303</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>006881</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>华宝大健康混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0293</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>011151</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>富国医疗保健行业混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>86.01</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0274</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>007005</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>中金新医药股票C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>92.00</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>8.67</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0269</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>012982</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>华夏创新医药龙头混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>88.11</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0252</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>501001</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>财通多策略精选混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>80.38</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0244</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>005293</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>诺德新旺灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>015032</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>中融医药消费混合A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0221</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>007481</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>华夏逸享健康灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>85.55</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>001531</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>招商安益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>70.35</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>003284</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>中邮医药健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>76.19</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>012981</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>华夏创新医药龙头混合A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>88.11</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>007277</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>恒生前海消费升级混合</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>82.28</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>012087</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>博时健康生活混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>012474</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>大成成长回报六个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>80.86</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>001226</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>中邮稳健添利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>014842</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>东方阿尔法医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>016018</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>银河康乐股票C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>007861</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>金元顺安医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>85.44</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>014157</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>国泰君安创新医药混合</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>79.28</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>005210</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>东吴双三角股票C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>91.09</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>519157</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>新华行业轮换灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>9.68</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>005209</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>东吴双三角股票A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>91.09</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>007862</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>金元顺安医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>85.44</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>009200</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>华安金享混合</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>79.59</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>010131</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>海富通惠增多策略一年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>78.02</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>015254</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>申万菱信消费增长混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>91.17</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>015655</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>富荣医药健康混合A</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>82.11</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>014470</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>富安达健康人生灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>86.44</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>015033</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>中融医药消费混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>015121</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>汇添富医疗服务灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>85.81</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>015666</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>银河医药健康混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>016198</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>大成科创主题混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>85.01</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>014758</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>民生加银医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>015656</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>富荣医药健康混合C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>82.11</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>014976</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>华安升级主题混合C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>85.97</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G96" t="n">
+        <v>0</v>
+      </c>
+      <c r="H96" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>015066</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>华夏逸享健康灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>85.55</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G97" t="n">
+        <v>0</v>
+      </c>
+      <c r="H97" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>015122</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>汇添富医疗服务灵活配置混合D</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>85.81</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G98" t="n">
+        <v>0</v>
+      </c>
+      <c r="H98" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1926,7 +5679,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3008,7 +6761,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3938,7 +7691,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4906,7 +8659,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5228,7 +8981,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/科创板/688677-海泰新光.xlsx
+++ b/数据整理/stocks/A股/科创板/688677-海泰新光.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="D2" t="n">
-        <v>17.52</v>
+        <v>13.41</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>34</v>
+        <v>97</v>
       </c>
       <c r="D3" t="n">
-        <v>5.19</v>
+        <v>17.52</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D4" t="n">
-        <v>2.82</v>
+        <v>5.19</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D5" t="n">
-        <v>3.92</v>
+        <v>2.82</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D6" t="n">
-        <v>4.1</v>
+        <v>3.92</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D7" t="n">
-        <v>1.97</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>7</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.97</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>9</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>1.08</v>
       </c>
     </row>
@@ -600,6 +617,3100 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H81"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>015122</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富医疗服务灵活配置混合D</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>30.29</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.53</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3721</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001417</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富医疗服务灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>30.26</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.53</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3708</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001040</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>新华策略精选股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>13.52</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0924</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>519087</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>新华优选分红混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.44</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.79</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.20</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9381</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000220</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国医疗保健行业混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12.58</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.71</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5523</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519158</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>新华趋势领航混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.38</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5084</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519156</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>新华行业轮换灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5077</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>501079</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大成科创主题混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>9.55</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>80.68</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4718</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011335</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>银河医药健康混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3722</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008293</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>农银汇理创新医疗混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>9.06</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3706</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>003231</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>创金合信医疗保健行业股票C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3538</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>160926</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>大成创业板两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>7.36</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>80.56</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3533</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>012473</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>大成成长回报六个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>7.49</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>75.28</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3483</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>506003</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>富国科创板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>13.76</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>98.91</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3096</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010608</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华泰柏瑞质量领先混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>21.15</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2982</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>012184</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>大成创新趋势混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>7.64</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>80.76</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2812</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>014185</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>招商专精特新股票A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>87.72</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2511</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>003230</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>创金合信医疗保健行业股票A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2304</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001173</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中欧瑾和灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.43</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2025</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>014186</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>招商专精特新股票C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>87.72</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1902</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009162</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>富国医药成长30股票</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.06</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1866</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>004982</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>新华安享多裕定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>45.81</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1781</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010371</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>大成成长进取混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>74.21</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1704</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>310388</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>申万菱信消费增长混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1570</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>014311</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>大成优质精选混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>68.27</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1496</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>014737</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>创金合信专精特新股票C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.82</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>7.53</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1378</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>014271</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>大成北交所两年定开混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>68.93</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1354</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>217013</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>招商中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>86.61</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1273</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009798</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>大成创业板两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>80.56</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1248</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>001174</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>中欧瑾和灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>89.43</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1168</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>006981</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>中金新医药股票A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1017</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>001294</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>新华战略新兴产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1014</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>011151</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>富国医疗保健行业混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>89.71</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0975</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>008274</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>大成行业先锋混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>76.92</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0972</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>011457</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>新华行业龙头主题股票</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>8.97</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0843</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>009898</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>民生加银医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>89.21</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0838</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>519673</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>银河康乐股票A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0755</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>010372</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>大成成长进取混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>74.21</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0708</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>013349</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>创金合信大健康混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0702</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>519157</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>新华行业轮换灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0662</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>014736</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>创金合信专精特新股票A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>91.82</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>7.53</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0610</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>519097</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>新华中小市值优选混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>70.51</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>7.68</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0507</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>002945</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>大成盛世精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>69.65</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0458</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>015254</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>申万菱信消费增长混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0452</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>013348</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>创金合信大健康混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0417</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>014232</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>博时专精特新主题混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>80.89</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0348</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>014272</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>大成北交所两年定开混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>68.93</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0322</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>010609</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>华泰柏瑞质量领先混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0314</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>005293</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>诺德新旺灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0303</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>014233</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>博时专精特新主题混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>80.89</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0299</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>007277</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>恒生前海消费升级混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>85.02</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>015032</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>中融医药消费混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0259</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>003513</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>中邮消费升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>90.06</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0252</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>001531</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>招商安益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>83.83</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>007005</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>中金新医药股票C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>017288</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>中欧瑾和灵活配置混合 - E</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>89.43</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>007518</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>东方阿尔法优选混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>012474</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>大成成长回报六个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>75.28</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>008275</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>大成行业先锋混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>76.92</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>001681</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>新华积极价值灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>007862</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>金元顺安医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>88.67</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>007861</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>金元顺安医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>88.67</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>006890</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>上投摩根领先优选混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>81.41</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>007519</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>东方阿尔法优选混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>005209</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>东吴双三角股票A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>92.11</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>005210</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>东吴双三角股票C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>92.11</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>012185</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>大成创新趋势混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>80.76</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>410009</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>华富量子生命力混合</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>014820</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>华安创新医药锐选量化股票A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>016018</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>银河康乐股票C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>014668</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>银华专精特新量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>016198</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>大成科创主题混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>80.68</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>014312</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>大成优质精选混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>68.27</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>014669</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>银华专精特新量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>015033</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>中融医药消费混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>015121</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>汇添富医疗服务灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>89.53</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>014821</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>华安创新医药锐选量化股票C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>015666</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>银河医药健康混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>014758</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>民生加银医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>89.21</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>017098</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>上投摩根领先优选混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>81.41</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G81" t="n">
+        <v>0</v>
+      </c>
+      <c r="H81" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4335,7 +7446,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5679,7 +8790,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6761,7 +9872,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7691,7 +10802,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8659,7 +11770,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8981,7 +12092,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
